--- a/biology/Zoologie/Agujaceratops/Agujaceratops.xlsx
+++ b/biology/Zoologie/Agujaceratops/Agujaceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agujaceratops (« face cornue d’Aguja ») est un genre éteint de dinosaures cératopsiens du Crétacé supérieur (formation d'Aguja) du Texas. Ce dinosaure a vécu durant le Crétacé supérieur (Campanien), il y a environ entre 77 et 70 Ma (millions d'années).
-L'espèce type, Agujaceratops mariscalensis, est originellement connue sous le nom de Chasmosaurus mariscalensis (Lehman, 1989)[1]. Elle a été décrite par Lucas, Hunt et Sullivan en 2006[2] et est considérée comme la plus ancienne espèce connue de chasmosaurinés, datant d'il y a environ 77 Ma (millions d'années)[3].
-Une seconde espèce, Agujaceratops mavericus, a été décrite par Lehman, Wick et Barnes en 2016[4].
+L'espèce type, Agujaceratops mariscalensis, est originellement connue sous le nom de Chasmosaurus mariscalensis (Lehman, 1989). Elle a été décrite par Lucas, Hunt et Sullivan en 2006 et est considérée comme la plus ancienne espèce connue de chasmosaurinés, datant d'il y a environ 77 Ma (millions d'années).
+Une seconde espèce, Agujaceratops mavericus, a été décrite par Lehman, Wick et Barnes en 2016.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'Agujaceratops mariscalensis est estimée à 4,3 mètres de long pour un poids de 1,5 tonne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'Agujaceratops mariscalensis est estimée à 4,3 mètres de long pour un poids de 1,5 tonne.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les échantillons d’Agujaceratops ont été recueillis dans la formation d'Aguja de l'ouest du Texas[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les échantillons d’Agujaceratops ont été recueillis dans la formation d'Aguja de l'ouest du Texas,.
 Lehman a supposé qu’Agujaceratops vivait dans les marais, en raison de la nature des sédiments découverts.
 </t>
         </is>
